--- a/project-management-template.xlsx
+++ b/project-management-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MER35\Projects\udacity-devops-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B418D5E-9E78-45DB-99BB-5FCECCF19295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C1A42-3103-4C04-86BD-E068A0D70DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Week</t>
   </si>
@@ -72,6 +72,66 @@
   <si>
     <t>CD Pipeline</t>
   </si>
+  <si>
+    <t>Quaterly Plan</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Yearly Plan</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Q2/2023</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Q1/2023</t>
+  </si>
+  <si>
+    <t>add Terraform for infrastructure</t>
+  </si>
+  <si>
+    <t>Code Refactoring and Optimization</t>
+  </si>
+  <si>
+    <t>Q3/2023</t>
+  </si>
+  <si>
+    <t>update Python code and dependencies to 3.11</t>
+  </si>
+  <si>
+    <t>diffcult</t>
+  </si>
+  <si>
+    <t>Y2023</t>
+  </si>
+  <si>
+    <t>Q4/2023</t>
+  </si>
+  <si>
+    <t>add automated testing for flask sklearn</t>
+  </si>
+  <si>
+    <t>optimize codebase</t>
+  </si>
+  <si>
+    <t>Y2024</t>
+  </si>
+  <si>
+    <t>add more testing and automation</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -117,6 +177,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -150,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -167,6 +234,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -385,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,9 +813,7 @@
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -918,38 +988,24 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+    <row r="17" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -975,9 +1031,15 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1003,9 +1065,15 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1031,9 +1099,15 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1059,9 +1133,13 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="16"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1086,38 +1164,24 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1143,9 +1207,15 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1171,9 +1241,15 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -28386,7 +28462,67 @@
       <c r="Y997" s="5"/>
       <c r="Z997" s="5"/>
     </row>
+    <row r="998" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A998" s="9"/>
+      <c r="B998" s="5"/>
+      <c r="C998" s="5"/>
+      <c r="D998" s="5"/>
+      <c r="E998" s="5"/>
+      <c r="F998" s="5"/>
+      <c r="G998" s="5"/>
+      <c r="H998" s="5"/>
+      <c r="I998" s="5"/>
+      <c r="J998" s="5"/>
+      <c r="K998" s="5"/>
+      <c r="L998" s="5"/>
+      <c r="M998" s="5"/>
+      <c r="N998" s="5"/>
+      <c r="O998" s="5"/>
+      <c r="P998" s="5"/>
+      <c r="Q998" s="5"/>
+      <c r="R998" s="5"/>
+      <c r="S998" s="5"/>
+      <c r="T998" s="5"/>
+      <c r="U998" s="5"/>
+      <c r="V998" s="5"/>
+      <c r="W998" s="5"/>
+      <c r="X998" s="5"/>
+      <c r="Y998" s="5"/>
+      <c r="Z998" s="5"/>
+    </row>
+    <row r="999" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A999" s="9"/>
+      <c r="B999" s="5"/>
+      <c r="C999" s="5"/>
+      <c r="D999" s="5"/>
+      <c r="E999" s="5"/>
+      <c r="F999" s="5"/>
+      <c r="G999" s="5"/>
+      <c r="H999" s="5"/>
+      <c r="I999" s="5"/>
+      <c r="J999" s="5"/>
+      <c r="K999" s="5"/>
+      <c r="L999" s="5"/>
+      <c r="M999" s="5"/>
+      <c r="N999" s="5"/>
+      <c r="O999" s="5"/>
+      <c r="P999" s="5"/>
+      <c r="Q999" s="5"/>
+      <c r="R999" s="5"/>
+      <c r="S999" s="5"/>
+      <c r="T999" s="5"/>
+      <c r="U999" s="5"/>
+      <c r="V999" s="5"/>
+      <c r="W999" s="5"/>
+      <c r="X999" s="5"/>
+      <c r="Y999" s="5"/>
+      <c r="Z999" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A23:D23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
